--- a/data/trans_orig/P36BPD06_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>107487</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90107</v>
+        <v>88223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128227</v>
+        <v>125765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1956573672433548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1640212094187154</v>
+        <v>0.1605917678294788</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2334109145165012</v>
+        <v>0.2289284019979059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -762,19 +762,19 @@
         <v>102358</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87089</v>
+        <v>88262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119669</v>
+        <v>119826</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2095735469617736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1783113713615023</v>
+        <v>0.1807120238286054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2450174794874662</v>
+        <v>0.2453392303949138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -783,19 +783,19 @@
         <v>209845</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184365</v>
+        <v>185412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234880</v>
+        <v>234864</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2022067854932898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1776542051490186</v>
+        <v>0.1786631301045997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2263304675252662</v>
+        <v>0.2263152493805058</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>441876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421136</v>
+        <v>423598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459256</v>
+        <v>461140</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8043426327566452</v>
+        <v>0.8043426327566454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7665890854834985</v>
+        <v>0.7710715980020941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8359787905812847</v>
+        <v>0.8394082321705212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>548</v>
@@ -833,19 +833,19 @@
         <v>386053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>368742</v>
+        <v>368585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401322</v>
+        <v>400149</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7904264530382266</v>
+        <v>0.7904264530382265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7549825205125338</v>
+        <v>0.7546607696050861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8216886286384973</v>
+        <v>0.8192879761713946</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>993</v>
@@ -854,19 +854,19 @@
         <v>827928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>802893</v>
+        <v>802909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>853408</v>
+        <v>852361</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7977932145067104</v>
+        <v>0.7977932145067103</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7736695324747338</v>
+        <v>0.7736847506194943</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8223457948509815</v>
+        <v>0.8213368698954006</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>114027</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96108</v>
+        <v>97016</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134376</v>
+        <v>132829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2366422374725186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1994549433454464</v>
+        <v>0.201338868852706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2788749855756316</v>
+        <v>0.2756634626717578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -979,19 +979,19 @@
         <v>91937</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77695</v>
+        <v>78478</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107684</v>
+        <v>107225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2176051470478303</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1838949867778908</v>
+        <v>0.1857492220869053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2548779811125084</v>
+        <v>0.2537907368732094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>236</v>
@@ -1000,19 +1000,19 @@
         <v>205964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>184419</v>
+        <v>183816</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>231899</v>
+        <v>230331</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2277484561424243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2039246437564957</v>
+        <v>0.2032578778387057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2564273287365378</v>
+        <v>0.2546930814913217</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>367825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347476</v>
+        <v>349023</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>385744</v>
+        <v>384836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7633577625274814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7211250144243685</v>
+        <v>0.7243365373282421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8005450566545536</v>
+        <v>0.798661131147294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -1050,19 +1050,19 @@
         <v>330557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314810</v>
+        <v>315269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344799</v>
+        <v>344016</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7823948529521697</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7451220188874917</v>
+        <v>0.7462092631267909</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.816105013222109</v>
+        <v>0.8142507779130946</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>833</v>
@@ -1071,19 +1071,19 @@
         <v>698383</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>672448</v>
+        <v>674016</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>719928</v>
+        <v>720531</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7722515438575759</v>
+        <v>0.7722515438575758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7435726712634619</v>
+        <v>0.7453069185086785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7960753562435042</v>
+        <v>0.7967421221612941</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>107739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89796</v>
+        <v>89751</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128096</v>
+        <v>126679</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2305807497880904</v>
+        <v>0.2305807497880905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1921802333783077</v>
+        <v>0.1920844842061377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2741489906888158</v>
+        <v>0.2711173478244701</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -1196,19 +1196,19 @@
         <v>43218</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34678</v>
+        <v>33448</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53854</v>
+        <v>53257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2314227810596431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1856887440023004</v>
+        <v>0.1791035958256587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2883755152289187</v>
+        <v>0.2851775134053957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -1217,19 +1217,19 @@
         <v>150957</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>131114</v>
+        <v>130708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174282</v>
+        <v>173016</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2308211939082668</v>
+        <v>0.2308211939082667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2004806590356686</v>
+        <v>0.1998595670802321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2664865943630246</v>
+        <v>0.2645501692288926</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>359510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>339153</v>
+        <v>340570</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>377453</v>
+        <v>377498</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7694192502119095</v>
+        <v>0.7694192502119096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7258510093111845</v>
+        <v>0.7288826521755299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8078197666216926</v>
+        <v>0.8079155157938622</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -1267,19 +1267,19 @@
         <v>143533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132897</v>
+        <v>133494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152073</v>
+        <v>153303</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7685772189403568</v>
+        <v>0.7685772189403569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7116244847710813</v>
+        <v>0.7148224865946045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8143112559976996</v>
+        <v>0.8208964041743413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>596</v>
@@ -1288,19 +1288,19 @@
         <v>503043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>479718</v>
+        <v>480984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>522886</v>
+        <v>523292</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7691788060917333</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7335134056369754</v>
+        <v>0.7354498307711083</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7995193409643317</v>
+        <v>0.8001404329197679</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>277662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>247624</v>
+        <v>247462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309975</v>
+        <v>311637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2460801898476039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2194581433196752</v>
+        <v>0.2193147950689523</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2747174597535158</v>
+        <v>0.2761905222227184</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>237</v>
@@ -1413,19 +1413,19 @@
         <v>179444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159010</v>
+        <v>158638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201914</v>
+        <v>200561</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2087731834688775</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1849993957886243</v>
+        <v>0.1845666024205249</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2349157597213867</v>
+        <v>0.2333415671123338</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>494</v>
@@ -1434,19 +1434,19 @@
         <v>457106</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>417716</v>
+        <v>420265</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>498756</v>
+        <v>495572</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2299492595398816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2101339522306872</v>
+        <v>0.2114159186200895</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2509010383792147</v>
+        <v>0.2492997148801105</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>850679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>818366</v>
+        <v>816704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>880717</v>
+        <v>880879</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7539198101523961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7252825402464842</v>
+        <v>0.7238094777772816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7805418566803248</v>
+        <v>0.7806852049310478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>990</v>
@@ -1484,19 +1484,19 @@
         <v>680073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>657603</v>
+        <v>658956</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>700507</v>
+        <v>700879</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7912268165311224</v>
+        <v>0.7912268165311225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7650842402786133</v>
+        <v>0.7666584328876661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8150006042113757</v>
+        <v>0.815433397579475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1847</v>
@@ -1505,19 +1505,19 @@
         <v>1530752</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1489102</v>
+        <v>1492286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1570142</v>
+        <v>1567593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7700507404601183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7490989616207852</v>
+        <v>0.7507002851198897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7898660477693129</v>
+        <v>0.7885840813799105</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>149677</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>128376</v>
+        <v>128325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172839</v>
+        <v>172873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2652979083763683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2275424328381261</v>
+        <v>0.2274517939519738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3063518401780178</v>
+        <v>0.3064118849948385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>323</v>
@@ -1630,19 +1630,19 @@
         <v>227336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>206787</v>
+        <v>205802</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248573</v>
+        <v>250063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.274372364274618</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2495718755634841</v>
+        <v>0.2483832054116512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3000035465381696</v>
+        <v>0.301802423603331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>462</v>
@@ -1651,19 +1651,19 @@
         <v>377013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>348527</v>
+        <v>346885</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>412174</v>
+        <v>410926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2706964224274562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2502436148010139</v>
+        <v>0.2490646181686315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2959418783652768</v>
+        <v>0.2950462131437874</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>414508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>391346</v>
+        <v>391312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>435809</v>
+        <v>435860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7347020916236319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6936481598219822</v>
+        <v>0.6935881150051617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7724575671618739</v>
+        <v>0.7725482060480263</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>963</v>
@@ -1701,19 +1701,19 @@
         <v>601230</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>579993</v>
+        <v>578503</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>621779</v>
+        <v>622764</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7256276357253819</v>
+        <v>0.725627635725382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6999964534618307</v>
+        <v>0.6981975763966689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.750428124436516</v>
+        <v>0.7516167945883487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1367</v>
@@ -1722,19 +1722,19 @@
         <v>1015739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>980578</v>
+        <v>981826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1044225</v>
+        <v>1045867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7293035775725438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7040581216347234</v>
+        <v>0.7049537868562126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.749756385198986</v>
+        <v>0.750935381831369</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>64044</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46287</v>
+        <v>45101</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86499</v>
+        <v>84198</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2699695503159887</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1951181225550389</v>
+        <v>0.1901171491283055</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3646250620158522</v>
+        <v>0.354925268888367</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>319</v>
@@ -1847,19 +1847,19 @@
         <v>250260</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>226096</v>
+        <v>224398</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>276942</v>
+        <v>275862</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2966193119523423</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2679785863888181</v>
+        <v>0.2659664195061149</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3282431756964992</v>
+        <v>0.326963606344761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>351</v>
@@ -1868,19 +1868,19 @@
         <v>314304</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>284444</v>
+        <v>279337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>353492</v>
+        <v>345761</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2907706224227086</v>
+        <v>0.2907706224227085</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2631456657822036</v>
+        <v>0.2584216132544331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.32702420925676</v>
+        <v>0.319871642384344</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>173184</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150729</v>
+        <v>153030</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190941</v>
+        <v>192127</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7300304496840112</v>
+        <v>0.7300304496840113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6353749379841478</v>
+        <v>0.6450747311116332</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.804881877444961</v>
+        <v>0.8098828508716945</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>839</v>
@@ -1918,19 +1918,19 @@
         <v>593449</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>566767</v>
+        <v>567847</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>617613</v>
+        <v>619311</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7033806880476576</v>
+        <v>0.7033806880476577</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6717568243035007</v>
+        <v>0.673036393655239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7320214136111822</v>
+        <v>0.734033580493885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>919</v>
@@ -1939,19 +1939,19 @@
         <v>766632</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>727444</v>
+        <v>735175</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>796492</v>
+        <v>801599</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7092293775772915</v>
+        <v>0.7092293775772914</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6729757907432401</v>
+        <v>0.6801283576156559</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7368543342177964</v>
+        <v>0.741578386745567</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>820636</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>764047</v>
+        <v>767196</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>877681</v>
+        <v>871885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2393768119873474</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2228699215180015</v>
+        <v>0.2237884914796143</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2560167715520809</v>
+        <v>0.2543260219686881</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1197</v>
@@ -2064,19 +2064,19 @@
         <v>894553</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>845955</v>
+        <v>848490</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>940153</v>
+        <v>941171</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2464709327105133</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.233080950125089</v>
+        <v>0.2337792888182057</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2590348091200119</v>
+        <v>0.2593151576569816</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1965</v>
@@ -2085,19 +2085,19 @@
         <v>1715189</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1642293</v>
+        <v>1647695</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1784124</v>
+        <v>1783783</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2430250073191417</v>
+        <v>0.2430250073191416</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2326963613513902</v>
+        <v>0.2334617642839314</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2527923814521602</v>
+        <v>0.2527440931480027</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2607582</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2550537</v>
+        <v>2556333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2664171</v>
+        <v>2661022</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7606231880126527</v>
+        <v>0.7606231880126526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7439832284479193</v>
+        <v>0.745673978031312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7771300784819986</v>
+        <v>0.7762115085203856</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4037</v>
@@ -2135,19 +2135,19 @@
         <v>2734895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2689295</v>
+        <v>2688277</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2783493</v>
+        <v>2780958</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7535290672894867</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7409651908799878</v>
+        <v>0.7406848423430185</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7669190498749109</v>
+        <v>0.7662207111817944</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6555</v>
@@ -2156,19 +2156,19 @@
         <v>5342477</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5273542</v>
+        <v>5273883</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5415373</v>
+        <v>5409971</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7569749926808584</v>
+        <v>0.7569749926808583</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7472076185478399</v>
+        <v>0.7472559068519973</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7673036386486097</v>
+        <v>0.7665382357160686</v>
       </c>
     </row>
     <row r="24">
